--- a/src/survey_form_template.xlsx
+++ b/src/survey_form_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFDC30-9B9C-4FE9-9D54-D311D8DC5223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B695E7-6615-41FF-AF67-FDC27921E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B55CEFB-34A2-4B55-BC6B-DE68AA5DD28C}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Form_Name</t>
   </si>
   <si>
-    <t>Form Name Test</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -86,16 +83,25 @@
     <t>Domain_Name</t>
   </si>
   <si>
-    <t>Front end</t>
-  </si>
-  <si>
     <t>Skill_Domain_Name</t>
   </si>
   <si>
-    <t>ReactJS</t>
-  </si>
-  <si>
-    <t>Angular</t>
+    <t>Back End</t>
+  </si>
+  <si>
+    <t>Survey Form 2</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Go</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAB338E-A7D5-4F14-9627-011AC3664F3C}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,37 +508,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>45201</v>
@@ -541,13 +547,13 @@
         <v>45259</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -558,10 +564,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -569,7 +575,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
